--- a/src/test/java/com/inetbanking/testData/DDF.xlsx
+++ b/src/test/java/com/inetbanking/testData/DDF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHAITU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work space2\inetBankingV1\src\test\java\com\inetbanking\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -41,7 +41,10 @@
     <t>mngr1957</t>
   </si>
   <si>
-    <t>AhuzYtek</t>
+    <t>mngr201383</t>
+  </si>
+  <si>
+    <t>jAzaryp</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,10 +399,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,10 +423,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
